--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N2">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O2">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P2">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q2">
-        <v>4.582883671081666</v>
+        <v>5.096834799289889</v>
       </c>
       <c r="R2">
-        <v>41.245953039735</v>
+        <v>45.871513193609</v>
       </c>
       <c r="S2">
-        <v>0.0006905418059998638</v>
+        <v>0.001431201014845243</v>
       </c>
       <c r="T2">
-        <v>0.0008310371140964681</v>
+        <v>0.00151683782102398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.630605</v>
       </c>
       <c r="O3">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P3">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q3">
-        <v>29.91834783037833</v>
+        <v>35.34939244030944</v>
       </c>
       <c r="R3">
-        <v>269.265130473405</v>
+        <v>318.144531962785</v>
       </c>
       <c r="S3">
-        <v>0.004508050264004487</v>
+        <v>0.009926177387931492</v>
       </c>
       <c r="T3">
-        <v>0.005425242974501169</v>
+        <v>0.01052011640855046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N4">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O4">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P4">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q4">
-        <v>4.130590337321</v>
+        <v>4.168683283727779</v>
       </c>
       <c r="R4">
-        <v>37.175313035889</v>
+        <v>37.51814955355</v>
       </c>
       <c r="S4">
-        <v>0.0006223909477296442</v>
+        <v>0.001170574284077411</v>
       </c>
       <c r="T4">
-        <v>0.000749020511932787</v>
+        <v>0.001240616327119276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N5">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O5">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P5">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q5">
-        <v>44.3085745395495</v>
+        <v>9.892894450479169</v>
       </c>
       <c r="R5">
-        <v>265.851447237297</v>
+        <v>59.35736670287501</v>
       </c>
       <c r="S5">
-        <v>0.006676347313131453</v>
+        <v>0.002777943789595713</v>
       </c>
       <c r="T5">
-        <v>0.005356462954744038</v>
+        <v>0.001962775860288262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N6">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O6">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P6">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q6">
-        <v>6.046940859604335</v>
+        <v>10.64480067709956</v>
       </c>
       <c r="R6">
-        <v>54.42246773643901</v>
+        <v>95.80320609389601</v>
       </c>
       <c r="S6">
-        <v>0.000911143673210451</v>
+        <v>0.00298908050424016</v>
       </c>
       <c r="T6">
-        <v>0.001096521893581368</v>
+        <v>0.00316793400220385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N7">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O7">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P7">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q7">
-        <v>270.3336986545772</v>
+        <v>254.4588518446099</v>
       </c>
       <c r="R7">
-        <v>2433.003287891195</v>
+        <v>2290.129666601489</v>
       </c>
       <c r="S7">
-        <v>0.04073346257281164</v>
+        <v>0.07145253502175512</v>
       </c>
       <c r="T7">
-        <v>0.04902095555916648</v>
+        <v>0.07572794206043659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.630605</v>
       </c>
       <c r="O8">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P8">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q8">
         <v>1764.814079322109</v>
@@ -948,10 +948,10 @@
         <v>15883.32671389898</v>
       </c>
       <c r="S8">
-        <v>0.2659194492059712</v>
+        <v>0.4955631879006321</v>
       </c>
       <c r="T8">
-        <v>0.3200225239517161</v>
+        <v>0.5252155206137642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N9">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O9">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P9">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q9">
-        <v>243.6539619281436</v>
+        <v>208.1210013377278</v>
       </c>
       <c r="R9">
-        <v>2192.885657353293</v>
+        <v>1873.08901203955</v>
       </c>
       <c r="S9">
-        <v>0.03671340120862607</v>
+        <v>0.058440777473632</v>
       </c>
       <c r="T9">
-        <v>0.04418298606107625</v>
+        <v>0.06193761787657515</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N10">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O10">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P10">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q10">
-        <v>2613.660240379031</v>
+        <v>493.9015413329791</v>
       </c>
       <c r="R10">
-        <v>15681.96144227419</v>
+        <v>2963.409247997875</v>
       </c>
       <c r="S10">
-        <v>0.3938222726555461</v>
+        <v>0.1386885027719309</v>
       </c>
       <c r="T10">
-        <v>0.3159653498078889</v>
+        <v>0.09799134394288241</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N11">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O11">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P11">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q11">
-        <v>356.6950430004048</v>
+        <v>531.4403674191796</v>
       </c>
       <c r="R11">
-        <v>3210.255387003643</v>
+        <v>4782.963306772616</v>
       </c>
       <c r="S11">
-        <v>0.05374625603939082</v>
+        <v>0.1492294773387648</v>
       </c>
       <c r="T11">
-        <v>0.06468128811954077</v>
+        <v>0.1581587162747754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N12">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O12">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P12">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q12">
-        <v>11.14119890388333</v>
+        <v>10.11811755910844</v>
       </c>
       <c r="R12">
-        <v>100.27079013495</v>
+        <v>91.06305803197598</v>
       </c>
       <c r="S12">
-        <v>0.001678738576900309</v>
+        <v>0.002841186871690846</v>
       </c>
       <c r="T12">
-        <v>0.002020289068885019</v>
+        <v>0.003011191061825429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.630605</v>
       </c>
       <c r="O13">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P13">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q13">
-        <v>72.73286602431666</v>
+        <v>70.17478934258222</v>
       </c>
       <c r="R13">
-        <v>654.5957942188501</v>
+        <v>631.57310408324</v>
       </c>
       <c r="S13">
-        <v>0.01095927548344763</v>
+        <v>0.01970521582093414</v>
       </c>
       <c r="T13">
-        <v>0.01318901273061271</v>
+        <v>0.0208842897109495</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N14">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O14">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P14">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q14">
-        <v>10.04165321257</v>
+        <v>8.27557281968889</v>
       </c>
       <c r="R14">
-        <v>90.37487891312999</v>
+        <v>74.48015537719999</v>
       </c>
       <c r="S14">
-        <v>0.001513060736930247</v>
+        <v>0.002323796764928422</v>
       </c>
       <c r="T14">
-        <v>0.00182090297407922</v>
+        <v>0.002462842595033893</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N15">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O15">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P15">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q15">
-        <v>107.716162469415</v>
+        <v>19.63914330983333</v>
       </c>
       <c r="R15">
-        <v>646.29697481649</v>
+        <v>117.834859859</v>
       </c>
       <c r="S15">
-        <v>0.016230504351739</v>
+        <v>0.005514709215146759</v>
       </c>
       <c r="T15">
-        <v>0.01302180537041664</v>
+        <v>0.003896456855800733</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N16">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O16">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P16">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q16">
-        <v>14.70038860073667</v>
+        <v>21.13181001259377</v>
       </c>
       <c r="R16">
-        <v>132.30349740663</v>
+        <v>190.186290113344</v>
       </c>
       <c r="S16">
-        <v>0.002215031762055742</v>
+        <v>0.005933852896263143</v>
       </c>
       <c r="T16">
-        <v>0.002665694657697787</v>
+        <v>0.006288908688635794</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N17">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O17">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P17">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q17">
-        <v>3.79507302589</v>
+        <v>5.144223310848333</v>
       </c>
       <c r="R17">
-        <v>22.77043815534</v>
+        <v>30.86533986509</v>
       </c>
       <c r="S17">
-        <v>0.0005718357194479939</v>
+        <v>0.001444507800037477</v>
       </c>
       <c r="T17">
-        <v>0.0004587863248812795</v>
+        <v>0.001020627217343476</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.630605</v>
       </c>
       <c r="O18">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P18">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q18">
-        <v>24.77529934847</v>
+        <v>35.67805820214166</v>
       </c>
       <c r="R18">
-        <v>148.65179609082</v>
+        <v>214.06834921285</v>
       </c>
       <c r="S18">
-        <v>0.00373310369282006</v>
+        <v>0.01001846736600665</v>
       </c>
       <c r="T18">
-        <v>0.00299508559081086</v>
+        <v>0.007078619076718386</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N19">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O19">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P19">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q19">
-        <v>3.420530193486</v>
+        <v>4.207442180916667</v>
       </c>
       <c r="R19">
-        <v>20.523181160916</v>
+        <v>25.2446530855</v>
       </c>
       <c r="S19">
-        <v>0.0005154001861734786</v>
+        <v>0.001181457856956553</v>
       </c>
       <c r="T19">
-        <v>0.0004135078471241991</v>
+        <v>0.0008347674169172842</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N20">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O20">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P20">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q20">
-        <v>36.691805448117</v>
+        <v>9.984874975937501</v>
       </c>
       <c r="R20">
-        <v>146.767221792468</v>
+        <v>39.93949990375</v>
       </c>
       <c r="S20">
-        <v>0.005528664355898474</v>
+        <v>0.0028037720980589</v>
       </c>
       <c r="T20">
-        <v>0.002957114564060817</v>
+        <v>0.00132068335638058</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N21">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O21">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P21">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q21">
-        <v>5.007454649186001</v>
+        <v>10.74377215249333</v>
       </c>
       <c r="R21">
-        <v>30.04472789511601</v>
+        <v>64.46263291496</v>
       </c>
       <c r="S21">
-        <v>0.0007545155027020753</v>
+        <v>0.003016871884891547</v>
       </c>
       <c r="T21">
-        <v>0.0006053511223202245</v>
+        <v>0.002131592198310554</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N22">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O22">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P22">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q22">
-        <v>51.937245772995</v>
+        <v>3.774003767161</v>
       </c>
       <c r="R22">
-        <v>467.435211956955</v>
+        <v>33.966033904449</v>
       </c>
       <c r="S22">
-        <v>0.007825823666669207</v>
+        <v>0.001059747516702549</v>
       </c>
       <c r="T22">
-        <v>0.009418039369766847</v>
+        <v>0.001123158170932742</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.630605</v>
       </c>
       <c r="O23">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P23">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q23">
-        <v>339.060883040385</v>
+        <v>26.174821333265</v>
       </c>
       <c r="R23">
-        <v>3051.547947363465</v>
+        <v>235.573391999385</v>
       </c>
       <c r="S23">
-        <v>0.05108916815760122</v>
+        <v>0.007349940174788685</v>
       </c>
       <c r="T23">
-        <v>0.0614835980941181</v>
+        <v>0.007789728433492338</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N24">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O24">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P24">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q24">
-        <v>46.811462156613</v>
+        <v>3.08674442795</v>
       </c>
       <c r="R24">
-        <v>421.303159409517</v>
+        <v>27.78069985155</v>
       </c>
       <c r="S24">
-        <v>0.007053478538653875</v>
+        <v>0.0008667637723838799</v>
       </c>
       <c r="T24">
-        <v>0.008488555505509025</v>
+        <v>0.0009186271237988558</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N25">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O25">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P25">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q25">
-        <v>502.1435172428236</v>
+        <v>7.325295481312501</v>
       </c>
       <c r="R25">
-        <v>3012.861103456941</v>
+        <v>43.951772887875</v>
       </c>
       <c r="S25">
-        <v>0.07566220662680312</v>
+        <v>0.002056957060557739</v>
       </c>
       <c r="T25">
-        <v>0.06070412275789284</v>
+        <v>0.001453357580248161</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N26">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O26">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P26">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q26">
-        <v>68.52922224096301</v>
+        <v>7.882052182983999</v>
       </c>
       <c r="R26">
-        <v>616.7630001686671</v>
+        <v>70.93846964685599</v>
       </c>
       <c r="S26">
-        <v>0.01032587695573593</v>
+        <v>0.002213295413247757</v>
       </c>
       <c r="T26">
-        <v>0.01242674507358023</v>
+        <v>0.002345729325992767</v>
       </c>
     </row>
   </sheetData>
